--- a/Team-Data/2010-11/4-2-2010-11.xlsx
+++ b/Team-Data/2010-11/4-2-2010-11.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
         <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.573</v>
+        <v>0.579</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J2" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L2" t="n">
         <v>6.3</v>
@@ -696,37 +763,37 @@
         <v>17.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O2" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P2" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R2" t="n">
         <v>9.4</v>
       </c>
       <c r="S2" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T2" t="n">
         <v>39.8</v>
       </c>
       <c r="U2" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V2" t="n">
         <v>13.6</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y2" t="n">
         <v>4.3</v>
@@ -735,25 +802,25 @@
         <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
@@ -777,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -795,28 +862,28 @@
         <v>26</v>
       </c>
       <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
         <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>8</v>
       </c>
       <c r="AW2" t="n">
         <v>29</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.699</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>76</v>
       </c>
       <c r="K3" t="n">
         <v>0.486</v>
@@ -875,73 +942,73 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O3" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P3" t="n">
         <v>23.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
         <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
         <v>38.9</v>
       </c>
       <c r="U3" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V3" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W3" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
         <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA3" t="n">
         <v>20.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH3" t="n">
         <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -959,13 +1026,13 @@
         <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -980,22 +1047,22 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>9</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" t="n">
         <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>0.432</v>
+        <v>0.427</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
@@ -1048,7 +1115,7 @@
         <v>34.7</v>
       </c>
       <c r="J4" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="K4" t="n">
         <v>0.449</v>
@@ -1057,10 +1124,10 @@
         <v>4.8</v>
       </c>
       <c r="M4" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.322</v>
+        <v>0.323</v>
       </c>
       <c r="O4" t="n">
         <v>18.7</v>
@@ -1069,7 +1136,7 @@
         <v>24.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R4" t="n">
         <v>10.5</v>
@@ -1078,19 +1145,19 @@
         <v>30.2</v>
       </c>
       <c r="T4" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U4" t="n">
         <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>6.3</v>
       </c>
       <c r="X4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y4" t="n">
         <v>6.1</v>
@@ -1102,10 +1169,10 @@
         <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="AD4" t="n">
         <v>15</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>28</v>
@@ -1153,13 +1220,13 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT4" t="n">
         <v>19</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>24</v>
@@ -1168,16 +1235,16 @@
         <v>28</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -1215,13 +1282,13 @@
         <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.747</v>
+        <v>0.733</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,10 +1297,10 @@
         <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L5" t="n">
         <v>6.2</v>
@@ -1242,31 +1309,31 @@
         <v>17.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.362</v>
+        <v>0.359</v>
       </c>
       <c r="O5" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.739</v>
+        <v>0.734</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U5" t="n">
         <v>22.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.2</v>
@@ -1278,52 +1345,52 @@
         <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>18</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
         <v>12</v>
@@ -1341,13 +1408,13 @@
         <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1356,10 +1423,10 @@
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>0.189</v>
+        <v>0.2</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
@@ -1415,7 +1482,7 @@
         <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L6" t="n">
         <v>6.2</v>
@@ -1424,7 +1491,7 @@
         <v>18.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
         <v>18.8</v>
@@ -1433,13 +1500,13 @@
         <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R6" t="n">
         <v>10.5</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T6" t="n">
         <v>40.5</v>
@@ -1457,7 +1524,7 @@
         <v>4.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z6" t="n">
         <v>20</v>
@@ -1469,7 +1536,7 @@
         <v>95</v>
       </c>
       <c r="AC6" t="n">
-        <v>-10.1</v>
+        <v>-9.9</v>
       </c>
       <c r="AD6" t="n">
         <v>15</v>
@@ -1484,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>28</v>
@@ -1496,7 +1563,7 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM6" t="n">
         <v>13</v>
@@ -1508,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
         <v>25</v>
@@ -1520,31 +1587,31 @@
         <v>23</v>
       </c>
       <c r="AT6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU6" t="n">
         <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX6" t="n">
         <v>28</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ6" t="n">
         <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -1579,13 +1646,13 @@
         <v>75</v>
       </c>
       <c r="E7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.707</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
@@ -1594,19 +1661,19 @@
         <v>37.2</v>
       </c>
       <c r="J7" t="n">
-        <v>78.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.472</v>
+        <v>0.474</v>
       </c>
       <c r="L7" t="n">
         <v>7.9</v>
       </c>
       <c r="M7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O7" t="n">
         <v>17.5</v>
@@ -1615,16 +1682,16 @@
         <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R7" t="n">
         <v>9.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U7" t="n">
         <v>23.7</v>
@@ -1633,7 +1700,7 @@
         <v>13.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
         <v>4.3</v>
@@ -1642,34 +1709,34 @@
         <v>3.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA7" t="n">
         <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="n">
         <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1687,13 +1754,13 @@
         <v>9</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR7" t="n">
         <v>28</v>
@@ -1702,19 +1769,19 @@
         <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV7" t="n">
         <v>12</v>
       </c>
       <c r="AW7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="n">
         <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.608</v>
+        <v>0.613</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
         <v>80.40000000000001</v>
@@ -1788,22 +1855,22 @@
         <v>20.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R8" t="n">
         <v>9.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T8" t="n">
         <v>41.9</v>
@@ -1818,22 +1885,22 @@
         <v>7.3</v>
       </c>
       <c r="X8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y8" t="n">
         <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB8" t="n">
         <v>107.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD8" t="n">
         <v>15</v>
@@ -1854,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1893,13 +1960,13 @@
         <v>15</v>
       </c>
       <c r="AW8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ8" t="n">
         <v>19</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" t="n">
-        <v>0.351</v>
+        <v>0.347</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,7 +2025,7 @@
         <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.457</v>
@@ -1976,10 +2043,10 @@
         <v>16.3</v>
       </c>
       <c r="P9" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.733</v>
+        <v>0.73</v>
       </c>
       <c r="R9" t="n">
         <v>11.3</v>
@@ -1994,7 +2061,7 @@
         <v>20.9</v>
       </c>
       <c r="V9" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
@@ -2012,7 +2079,7 @@
         <v>18.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC9" t="n">
         <v>-4.1</v>
@@ -2033,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
         <v>14</v>
@@ -2045,13 +2112,13 @@
         <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
         <v>28</v>
@@ -2063,19 +2130,19 @@
         <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
         <v>30</v>
       </c>
       <c r="AU9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV9" t="n">
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2204,22 @@
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="J10" t="n">
-        <v>85.5</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M10" t="n">
         <v>21.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.392</v>
+        <v>0.393</v>
       </c>
       <c r="O10" t="n">
         <v>15.7</v>
@@ -2161,10 +2228,10 @@
         <v>20.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R10" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S10" t="n">
         <v>28.8</v>
@@ -2176,7 +2243,7 @@
         <v>22.4</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W10" t="n">
         <v>9</v>
@@ -2188,19 +2255,19 @@
         <v>4.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA10" t="n">
         <v>18.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.9</v>
+        <v>103.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2212,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>1</v>
@@ -2221,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM10" t="n">
         <v>6</v>
@@ -2239,7 +2306,7 @@
         <v>30</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>11</v>
@@ -2248,7 +2315,7 @@
         <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2260,22 +2327,22 @@
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
         <v>7</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB10" t="n">
         <v>7</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
         <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" t="n">
-        <v>0.541</v>
+        <v>0.526</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
@@ -2322,7 +2389,7 @@
         <v>38.6</v>
       </c>
       <c r="J11" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.454</v>
@@ -2331,37 +2398,37 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O11" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="P11" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.799</v>
+        <v>0.801</v>
       </c>
       <c r="R11" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S11" t="n">
         <v>30.9</v>
       </c>
       <c r="T11" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U11" t="n">
         <v>23.6</v>
       </c>
       <c r="V11" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W11" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X11" t="n">
         <v>4.6</v>
@@ -2373,16 +2440,16 @@
         <v>20.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.8</v>
+        <v>106.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2415,13 +2482,13 @@
         <v>7</v>
       </c>
       <c r="AO11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP11" t="n">
         <v>5</v>
       </c>
-      <c r="AP11" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>8</v>
@@ -2430,7 +2497,7 @@
         <v>13</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>3</v>
@@ -2439,19 +2506,19 @@
         <v>6</v>
       </c>
       <c r="AW11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
         <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>0.461</v>
+        <v>0.455</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J12" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L12" t="n">
         <v>7.1</v>
@@ -2525,7 +2592,7 @@
         <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2534,13 +2601,13 @@
         <v>32.6</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>19.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
         <v>7</v>
@@ -2558,10 +2625,10 @@
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2582,10 +2649,10 @@
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>10</v>
@@ -2633,10 +2700,10 @@
         <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC12" t="n">
         <v>19</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -2671,13 +2738,13 @@
         <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="n">
-        <v>0.395</v>
+        <v>0.382</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,49 +2753,49 @@
         <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L13" t="n">
         <v>6.3</v>
       </c>
       <c r="M13" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O13" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P13" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R13" t="n">
         <v>11.6</v>
       </c>
       <c r="S13" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T13" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U13" t="n">
         <v>22.1</v>
       </c>
       <c r="V13" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y13" t="n">
         <v>4.8</v>
@@ -2737,16 +2804,16 @@
         <v>21.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
@@ -2758,7 +2825,7 @@
         <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
@@ -2797,7 +2864,7 @@
         <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
         <v>29</v>
@@ -2806,7 +2873,7 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2815,13 +2882,13 @@
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,34 +2935,34 @@
         <v>38.3</v>
       </c>
       <c r="J14" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L14" t="n">
         <v>6.4</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O14" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R14" t="n">
         <v>12.1</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
         <v>43.9</v>
@@ -2907,70 +2974,70 @@
         <v>12.9</v>
       </c>
       <c r="W14" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA14" t="n">
         <v>20.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
         <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
         <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
       </c>
       <c r="AM14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN14" t="n">
         <v>15</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS14" t="n">
         <v>8</v>
@@ -2991,7 +3058,7 @@
         <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -3035,13 +3102,13 @@
         <v>76</v>
       </c>
       <c r="E15" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>0.579</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
@@ -3050,13 +3117,13 @@
         <v>39.1</v>
       </c>
       <c r="J15" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K15" t="n">
         <v>0.471</v>
       </c>
       <c r="L15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M15" t="n">
         <v>11.3</v>
@@ -3065,16 +3132,16 @@
         <v>0.331</v>
       </c>
       <c r="O15" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
         <v>29.1</v>
@@ -3083,13 +3150,13 @@
         <v>40.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13.9</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X15" t="n">
         <v>5.4</v>
@@ -3098,31 +3165,31 @@
         <v>6.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB15" t="n">
         <v>100.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
         <v>3</v>
@@ -3143,13 +3210,13 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>7</v>
@@ -3161,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>13</v>
@@ -3176,7 +3243,7 @@
         <v>30</v>
       </c>
       <c r="AZ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.703</v>
+        <v>0.697</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="L16" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M16" t="n">
         <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O16" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P16" t="n">
         <v>28.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R16" t="n">
         <v>9.6</v>
@@ -3262,16 +3329,16 @@
         <v>32.7</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W16" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X16" t="n">
         <v>5.4</v>
@@ -3283,31 +3350,31 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.6</v>
+        <v>102.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI16" t="n">
         <v>19</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>16</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3319,10 +3386,10 @@
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3337,7 +3404,7 @@
         <v>26</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>9</v>
@@ -3349,7 +3416,7 @@
         <v>10</v>
       </c>
       <c r="AW16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX16" t="n">
         <v>8</v>
@@ -3358,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -3399,13 +3466,13 @@
         <v>75</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>0.413</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,13 +3484,13 @@
         <v>79.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L17" t="n">
         <v>5.9</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="N17" t="n">
         <v>0.344</v>
@@ -3432,25 +3499,25 @@
         <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R17" t="n">
         <v>10.8</v>
       </c>
       <c r="S17" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
         <v>41.1</v>
       </c>
       <c r="U17" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="V17" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3462,31 +3529,31 @@
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
         <v>91.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>30</v>
@@ -3501,10 +3568,10 @@
         <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
@@ -3513,13 +3580,13 @@
         <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>17</v>
       </c>
       <c r="AS17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT17" t="n">
         <v>17</v>
@@ -3531,16 +3598,16 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>16</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -3593,10 +3660,10 @@
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>85.3</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K18" t="n">
         <v>0.438</v>
@@ -3608,55 +3675,55 @@
         <v>19.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O18" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P18" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q18" t="n">
         <v>0.767</v>
       </c>
       <c r="R18" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S18" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T18" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U18" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V18" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
         <v>5.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA18" t="n">
         <v>21.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.3</v>
+        <v>-6.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,13 +3738,13 @@
         <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>2</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
         <v>9</v>
@@ -3695,7 +3762,7 @@
         <v>13</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>1</v>
@@ -3713,16 +3780,16 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
         <v>10</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
         <v>52</v>
       </c>
       <c r="G19" t="n">
-        <v>0.297</v>
+        <v>0.307</v>
       </c>
       <c r="H19" t="n">
         <v>48.9</v>
@@ -3781,7 +3848,7 @@
         <v>80.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
@@ -3790,16 +3857,16 @@
         <v>16.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P19" t="n">
         <v>23.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R19" t="n">
         <v>11.3</v>
@@ -3811,31 +3878,31 @@
         <v>41.6</v>
       </c>
       <c r="U19" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V19" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA19" t="n">
         <v>20</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.2</v>
+        <v>-6.1</v>
       </c>
       <c r="AD19" t="n">
         <v>15</v>
@@ -3859,7 +3926,7 @@
         <v>16</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>21</v>
@@ -3868,10 +3935,10 @@
         <v>20</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP19" t="n">
         <v>22</v>
@@ -3883,7 +3950,7 @@
         <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>14</v>
@@ -3904,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" t="n">
         <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3972,22 +4039,22 @@
         <v>15.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O20" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R20" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
         <v>40.2</v>
@@ -3996,13 +4063,13 @@
         <v>20.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y20" t="n">
         <v>4.9</v>
@@ -4011,7 +4078,7 @@
         <v>20.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB20" t="n">
         <v>94.90000000000001</v>
@@ -4020,19 +4087,19 @@
         <v>1.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
         <v>13</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -4050,22 +4117,22 @@
         <v>25</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4074,13 +4141,13 @@
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY20" t="n">
         <v>19</v>
@@ -4092,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="n">
         <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,7 +4209,7 @@
         <v>38.3</v>
       </c>
       <c r="J21" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.457</v>
@@ -4151,31 +4218,31 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O21" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P21" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R21" t="n">
         <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
         <v>13.8</v>
@@ -4184,7 +4251,7 @@
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y21" t="n">
         <v>4.5</v>
@@ -4196,10 +4263,10 @@
         <v>20.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD21" t="n">
         <v>15</v>
@@ -4208,10 +4275,10 @@
         <v>16</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -4232,13 +4299,13 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP21" t="n">
         <v>8</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>6</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
@@ -4250,7 +4317,7 @@
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
         <v>15</v>
@@ -4259,7 +4326,7 @@
         <v>11</v>
       </c>
       <c r="AW21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -4309,19 +4376,19 @@
         <v>75</v>
       </c>
       <c r="E22" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.653</v>
+        <v>0.667</v>
       </c>
       <c r="H22" t="n">
         <v>48.8</v>
       </c>
       <c r="I22" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
         <v>80.5</v>
@@ -4336,22 +4403,22 @@
         <v>17.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O22" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="P22" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.824</v>
+        <v>0.823</v>
       </c>
       <c r="R22" t="n">
         <v>10.9</v>
       </c>
       <c r="S22" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T22" t="n">
         <v>42.5</v>
@@ -4360,7 +4427,7 @@
         <v>20.4</v>
       </c>
       <c r="V22" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W22" t="n">
         <v>7.9</v>
@@ -4372,19 +4439,19 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>7</v>
@@ -4396,13 +4463,13 @@
         <v>7</v>
       </c>
       <c r="AH22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>12</v>
@@ -4411,7 +4478,7 @@
         <v>18</v>
       </c>
       <c r="AM22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN22" t="n">
         <v>19</v>
@@ -4426,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
@@ -4444,13 +4511,13 @@
         <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" t="n">
         <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>0.627</v>
+        <v>0.632</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>9.4</v>
@@ -4524,25 +4591,25 @@
         <v>17.7</v>
       </c>
       <c r="P23" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R23" t="n">
         <v>10.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
         <v>20.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
@@ -4560,13 +4627,13 @@
         <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>8</v>
@@ -4578,16 +4645,16 @@
         <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4602,7 +4669,7 @@
         <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,7 +4678,7 @@
         <v>20</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
         <v>6</v>
@@ -4632,13 +4699,13 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -4682,31 +4749,31 @@
         <v>0.526</v>
       </c>
       <c r="H24" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I24" t="n">
         <v>38.3</v>
       </c>
       <c r="J24" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.464</v>
       </c>
       <c r="L24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O24" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P24" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q24" t="n">
         <v>0.772</v>
@@ -4718,7 +4785,7 @@
         <v>31.8</v>
       </c>
       <c r="T24" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U24" t="n">
         <v>22.8</v>
@@ -4733,7 +4800,7 @@
         <v>4.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z24" t="n">
         <v>19.6</v>
@@ -4745,22 +4812,22 @@
         <v>99.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI24" t="n">
         <v>9</v>
@@ -4769,7 +4836,7 @@
         <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4778,10 +4845,10 @@
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
@@ -4796,19 +4863,19 @@
         <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU24" t="n">
         <v>6</v>
       </c>
       <c r="AV24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW24" t="n">
         <v>8</v>
       </c>
       <c r="AX24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -4852,13 +4919,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G25" t="n">
         <v>0.493</v>
@@ -4867,22 +4934,22 @@
         <v>48.8</v>
       </c>
       <c r="I25" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J25" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K25" t="n">
         <v>0.47</v>
       </c>
       <c r="L25" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M25" t="n">
         <v>22.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O25" t="n">
         <v>18.1</v>
@@ -4900,16 +4967,16 @@
         <v>30.3</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V25" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W25" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X25" t="n">
         <v>4.4</v>
@@ -4921,16 +4988,16 @@
         <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AC25" t="n">
         <v>-0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
         <v>16</v>
@@ -4972,16 +5039,16 @@
         <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -5034,130 +5101,130 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F26" t="n">
         <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>80.3</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K26" t="n">
         <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
         <v>18.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.341</v>
+        <v>0.344</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R26" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="T26" t="n">
-        <v>39</v>
+        <v>39.3</v>
       </c>
       <c r="U26" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y26" t="n">
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK26" t="n">
         <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>28</v>
@@ -5181,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
         <v>23</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" t="n">
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5243,16 +5310,16 @@
         <v>5.3</v>
       </c>
       <c r="M27" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N27" t="n">
         <v>0.342</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q27" t="n">
         <v>0.729</v>
@@ -5267,7 +5334,7 @@
         <v>43.7</v>
       </c>
       <c r="U27" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V27" t="n">
         <v>16.3</v>
@@ -5282,16 +5349,16 @@
         <v>5.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD27" t="n">
         <v>15</v>
@@ -5315,22 +5382,22 @@
         <v>4</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO27" t="n">
         <v>23</v>
       </c>
-      <c r="AO27" t="n">
-        <v>26</v>
-      </c>
       <c r="AP27" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ27" t="n">
         <v>28</v>
@@ -5351,10 +5418,10 @@
         <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY27" t="n">
         <v>21</v>
@@ -5366,7 +5433,7 @@
         <v>14</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -5398,22 +5465,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="n">
         <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J28" t="n">
         <v>80.90000000000001</v>
@@ -5422,40 +5489,40 @@
         <v>0.474</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
         <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.395</v>
+        <v>0.396</v>
       </c>
       <c r="O28" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P28" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T28" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V28" t="n">
         <v>13.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>4.6</v>
@@ -5467,16 +5534,16 @@
         <v>18.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,10 +5555,10 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
         <v>15</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP28" t="n">
         <v>18</v>
@@ -5521,7 +5588,7 @@
         <v>23</v>
       </c>
       <c r="AS28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT28" t="n">
         <v>13</v>
@@ -5533,10 +5600,10 @@
         <v>8</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -5595,13 +5662,13 @@
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="L29" t="n">
         <v>4.3</v>
@@ -5610,7 +5677,7 @@
         <v>13.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="O29" t="n">
         <v>17.9</v>
@@ -5619,67 +5686,67 @@
         <v>23.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R29" t="n">
         <v>11.6</v>
       </c>
       <c r="S29" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
         <v>22.2</v>
       </c>
       <c r="V29" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W29" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X29" t="n">
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z29" t="n">
         <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>29</v>
@@ -5691,13 +5758,13 @@
         <v>30</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
         <v>20</v>
       </c>
       <c r="AQ29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR29" t="n">
         <v>10</v>
@@ -5709,28 +5776,28 @@
         <v>25</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV29" t="n">
         <v>22</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>26</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E30" t="n">
         <v>36</v>
       </c>
       <c r="F30" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>0.486</v>
+        <v>0.474</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L30" t="n">
         <v>5.3</v>
@@ -5792,31 +5859,31 @@
         <v>15.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O30" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P30" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.777</v>
+        <v>0.774</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T30" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="U30" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W30" t="n">
         <v>7.6</v>
@@ -5825,64 +5892,64 @@
         <v>5.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.4</v>
+        <v>-1.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
         <v>17</v>
       </c>
       <c r="AK30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
         <v>9</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
         <v>27</v>
@@ -5894,13 +5961,13 @@
         <v>5</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>7</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>20</v>
@@ -5909,10 +5976,10 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
@@ -5944,64 +6011,64 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" t="n">
         <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>0.257</v>
+        <v>0.253</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J31" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K31" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="O31" t="n">
         <v>17.9</v>
       </c>
       <c r="P31" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q31" t="n">
         <v>0.746</v>
       </c>
       <c r="R31" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S31" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U31" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V31" t="n">
         <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X31" t="n">
         <v>6</v>
@@ -6013,13 +6080,13 @@
         <v>22.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.7</v>
+        <v>-8</v>
       </c>
       <c r="AD31" t="n">
         <v>15</v>
@@ -6034,7 +6101,7 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI31" t="n">
         <v>17</v>
@@ -6043,7 +6110,7 @@
         <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>27</v>
@@ -6055,10 +6122,10 @@
         <v>27</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
@@ -6070,7 +6137,7 @@
         <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6091,7 +6158,7 @@
         <v>29</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-2-2010-11</t>
+          <t>2011-04-02</t>
         </is>
       </c>
     </row>
